--- a/Frecuentista_depto/COL/Output/empleo_smce_MC.xlsx
+++ b/Frecuentista_depto/COL/Output/empleo_smce_MC.xlsx
@@ -467,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00240756588950636</v>
+        <v>0.00231176578588815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.490908041917805</v>
+        <v>0.488201967721922</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00253344902588972</v>
+        <v>0.00235600679767414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.602115369644902</v>
+        <v>0.60088414031413</v>
       </c>
     </row>
     <row r="4">
@@ -489,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00291377997639536</v>
+        <v>0.00316367984963938</v>
       </c>
       <c r="C4" t="n">
-        <v>0.407799836135633</v>
+        <v>0.408652337854738</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0033507565257404</v>
+        <v>0.00257243083110167</v>
       </c>
       <c r="C5" t="n">
-        <v>0.647627294263321</v>
+        <v>0.641599854107281</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00340204679459388</v>
+        <v>0.00308566566691175</v>
       </c>
       <c r="C6" t="n">
-        <v>0.588142229546696</v>
+        <v>0.584669548600328</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00277658221878585</v>
+        <v>0.00261840705503407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.492429733020031</v>
+        <v>0.489618402585804</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00378270947830506</v>
+        <v>0.00314253548686994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.731278859212313</v>
+        <v>0.722996518942883</v>
       </c>
     </row>
     <row r="9">
@@ -544,10 +544,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00322690848692975</v>
+        <v>0.0023030426190356</v>
       </c>
       <c r="C9" t="n">
-        <v>0.72594981278371</v>
+        <v>0.718035372338152</v>
       </c>
     </row>
     <row r="10">
@@ -555,10 +555,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00309982798253114</v>
+        <v>0.00244571428180775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.709122877376187</v>
+        <v>0.705526558186348</v>
       </c>
     </row>
     <row r="11">
@@ -566,10 +566,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0029829178152423</v>
+        <v>0.00232868099212124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.730933631302646</v>
+        <v>0.719430138097316</v>
       </c>
     </row>
     <row r="12">
@@ -577,10 +577,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00541520021439619</v>
+        <v>0.00631395726223987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.531476248834287</v>
+        <v>0.530861890919076</v>
       </c>
     </row>
     <row r="13">
@@ -588,10 +588,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00837117293940808</v>
+        <v>0.00319887393836746</v>
       </c>
       <c r="C13" t="n">
-        <v>0.750858876955428</v>
+        <v>0.720300709917248</v>
       </c>
     </row>
     <row r="14">
@@ -599,10 +599,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.00272630585120893</v>
+        <v>0.00252262354389423</v>
       </c>
       <c r="C14" t="n">
-        <v>0.665312894927181</v>
+        <v>0.665732600684077</v>
       </c>
     </row>
     <row r="15">
@@ -610,10 +610,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.00362672374686261</v>
+        <v>0.0020721419568032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.793940988050916</v>
+        <v>0.790418598605476</v>
       </c>
     </row>
     <row r="16">
@@ -621,10 +621,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00308688929765445</v>
+        <v>0.00257101062139269</v>
       </c>
       <c r="C16" t="n">
-        <v>0.690608749032837</v>
+        <v>0.685866938415752</v>
       </c>
     </row>
     <row r="17">
@@ -632,10 +632,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00306916265917185</v>
+        <v>0.00322688386575513</v>
       </c>
       <c r="C17" t="n">
-        <v>0.651621693692963</v>
+        <v>0.648210177577909</v>
       </c>
     </row>
     <row r="18">
@@ -643,10 +643,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0.00419126072178149</v>
+        <v>0.00299701596993502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.714415019938227</v>
+        <v>0.707861024672471</v>
       </c>
     </row>
     <row r="19">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00312154458969476</v>
+        <v>0.002805812016169</v>
       </c>
       <c r="C19" t="n">
-        <v>0.683404401933761</v>
+        <v>0.680251933957271</v>
       </c>
     </row>
     <row r="20">
@@ -665,10 +665,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00295755808966442</v>
+        <v>0.00331646182502219</v>
       </c>
       <c r="C20" t="n">
-        <v>0.557725897474411</v>
+        <v>0.556423239324126</v>
       </c>
     </row>
     <row r="21">
@@ -676,10 +676,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0026309335774084</v>
+        <v>0.0030954398158163</v>
       </c>
       <c r="C21" t="n">
-        <v>0.548029980229573</v>
+        <v>0.547911756027029</v>
       </c>
     </row>
     <row r="22">
@@ -687,10 +687,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00329630544995513</v>
+        <v>0.00326586006576449</v>
       </c>
       <c r="C22" t="n">
-        <v>0.592183565521865</v>
+        <v>0.58768053430424</v>
       </c>
     </row>
     <row r="23">
@@ -698,10 +698,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00295853856571076</v>
+        <v>0.00259054524987445</v>
       </c>
       <c r="C23" t="n">
-        <v>0.752696585883937</v>
+        <v>0.745087399601091</v>
       </c>
     </row>
     <row r="24">
@@ -709,10 +709,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00319413461545796</v>
+        <v>0.00303694450629423</v>
       </c>
       <c r="C24" t="n">
-        <v>0.629105463025207</v>
+        <v>0.626722143122576</v>
       </c>
     </row>
     <row r="25">
@@ -720,10 +720,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00289282070356781</v>
+        <v>0.0031033199016924</v>
       </c>
       <c r="C25" t="n">
-        <v>0.520586070558716</v>
+        <v>0.518445365220124</v>
       </c>
     </row>
     <row r="26">
@@ -731,10 +731,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0275940120775815</v>
+        <v>0.0348687935198066</v>
       </c>
       <c r="C26" t="n">
-        <v>0.756673358588063</v>
+        <v>0.741373240461102</v>
       </c>
     </row>
     <row r="27">
@@ -742,10 +742,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0344378014612749</v>
+        <v>0.0395065860548887</v>
       </c>
       <c r="C27" t="n">
-        <v>0.683893904665569</v>
+        <v>0.675041949588754</v>
       </c>
     </row>
     <row r="28">
@@ -753,10 +753,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0295665003738525</v>
+        <v>0.0346179289538455</v>
       </c>
       <c r="C28" t="n">
-        <v>0.755529953025297</v>
+        <v>0.740311213456729</v>
       </c>
     </row>
     <row r="29">
@@ -764,10 +764,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0574864896803057</v>
+        <v>0.0580035365813083</v>
       </c>
       <c r="C29" t="n">
-        <v>0.645153328938695</v>
+        <v>0.627805405405405</v>
       </c>
     </row>
     <row r="30">
@@ -775,10 +775,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0282912377258865</v>
+        <v>0.0320161469350603</v>
       </c>
       <c r="C30" t="n">
-        <v>0.786132883831999</v>
+        <v>0.77031886500913</v>
       </c>
     </row>
     <row r="31">
@@ -786,10 +786,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0249087202926648</v>
+        <v>0.0270950772561376</v>
       </c>
       <c r="C31" t="n">
-        <v>0.816051561392381</v>
+        <v>0.804945715031899</v>
       </c>
     </row>
     <row r="32">
@@ -797,10 +797,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0326164916547933</v>
+        <v>0.0367773481078161</v>
       </c>
       <c r="C32" t="n">
-        <v>0.723493689339011</v>
+        <v>0.709114589327502</v>
       </c>
     </row>
     <row r="33">
@@ -808,10 +808,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0232408716236178</v>
+        <v>0.0240508973905873</v>
       </c>
       <c r="C33" t="n">
-        <v>0.838599134857632</v>
+        <v>0.82915862527927</v>
       </c>
     </row>
     <row r="34">
@@ -819,10 +819,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0231524576674385</v>
+        <v>0.0259547617964963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.857412127745017</v>
+        <v>0.84860080738909</v>
       </c>
     </row>
   </sheetData>
